--- a/TestData/JTPS-DEVQA/WorkItemTypes.xlsx
+++ b/TestData/JTPS-DEVQA/WorkItemTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="114">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -350,6 +350,12 @@
   </si>
   <si>
     <t>wnd_WorkItems</t>
+  </si>
+  <si>
+    <t>TS001</t>
+  </si>
+  <si>
+    <t>Work Item Type</t>
   </si>
 </sst>
 </file>
@@ -975,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,8 +1087,12 @@
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
         <v>18</v>
@@ -1127,8 +1137,12 @@
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="7"/>
+      <c r="B3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8" t="s">
         <v>18</v>
@@ -2025,7 +2039,7 @@
       <c r="W22" s="1"/>
       <c r="X22" s="28"/>
     </row>
-    <row r="23" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="7"/>
@@ -2071,7 +2085,7 @@
       <c r="W23" s="34"/>
       <c r="X23" s="28"/>
     </row>
-    <row r="24" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="24"/>
@@ -2117,7 +2131,7 @@
       <c r="W24" s="34"/>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="7"/>
@@ -2157,7 +2171,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="24"/>
@@ -2203,7 +2217,7 @@
       <c r="W26" s="1"/>
       <c r="X26" s="28"/>
     </row>
-    <row r="27" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="24"/>
@@ -2341,7 +2355,7 @@
       <c r="W29" s="1"/>
       <c r="X29" s="28"/>
     </row>
-    <row r="30" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="24"/>
@@ -2661,7 +2675,7 @@
       <c r="W36" s="3"/>
       <c r="X36" s="28"/>
     </row>
-    <row r="37" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="7"/>
@@ -2707,7 +2721,7 @@
       <c r="W37" s="1"/>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="24"/>
@@ -2845,7 +2859,7 @@
       <c r="W40" s="1"/>
       <c r="X40" s="2"/>
     </row>
-    <row r="41" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="24"/>
@@ -2891,7 +2905,7 @@
       <c r="W41" s="1"/>
       <c r="X41" s="2"/>
     </row>
-    <row r="42" spans="1:24" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="24"/>
@@ -3075,7 +3089,7 @@
       <c r="W45" s="1"/>
       <c r="X45" s="2"/>
     </row>
-    <row r="46" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="24"/>
@@ -3167,7 +3181,7 @@
       <c r="W47" s="1"/>
       <c r="X47" s="2"/>
     </row>
-    <row r="48" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="24"/>
@@ -3213,7 +3227,7 @@
       <c r="W48" s="1"/>
       <c r="X48" s="2"/>
     </row>
-    <row r="49" spans="1:24" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="24"/>
@@ -3259,7 +3273,7 @@
       <c r="W49" s="1"/>
       <c r="X49" s="2"/>
     </row>
-    <row r="50" spans="1:24" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="24"/>
@@ -3443,7 +3457,7 @@
       <c r="W53" s="1"/>
       <c r="X53" s="2"/>
     </row>
-    <row r="54" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="24"/>
@@ -3671,7 +3685,7 @@
       <c r="W58" s="1"/>
       <c r="X58" s="2"/>
     </row>
-    <row r="59" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="24"/>
@@ -3717,7 +3731,7 @@
       <c r="W59" s="1"/>
       <c r="X59" s="2"/>
     </row>
-    <row r="60" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="24"/>
@@ -3945,7 +3959,7 @@
       <c r="W64" s="1"/>
       <c r="X64" s="28"/>
     </row>
-    <row r="65" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="24"/>
@@ -3991,7 +4005,7 @@
       <c r="W65" s="1"/>
       <c r="X65" s="28"/>
     </row>
-    <row r="66" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="24"/>
@@ -4037,7 +4051,7 @@
       <c r="W66" s="1"/>
       <c r="X66" s="28"/>
     </row>
-    <row r="67" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="24"/>
@@ -4083,7 +4097,7 @@
       <c r="W67" s="1"/>
       <c r="X67" s="28"/>
     </row>
-    <row r="68" spans="1:24" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="24"/>
@@ -4129,7 +4143,7 @@
       <c r="W68" s="1"/>
       <c r="X68" s="28"/>
     </row>
-    <row r="69" spans="1:24" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="24"/>

--- a/TestData/JTPS-DEVQA/WorkItemTypes.xlsx
+++ b/TestData/JTPS-DEVQA/WorkItemTypes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="113">
   <si>
     <t>Run_TestCase</t>
   </si>
@@ -337,25 +337,22 @@
     <t>elm_Changessavedtothedatabase</t>
   </si>
   <si>
-    <t>Day Ranges,setproperty,innertext</t>
-  </si>
-  <si>
-    <t>allrows,value^</t>
-  </si>
-  <si>
     <t>ZXY</t>
   </si>
   <si>
     <t>allrows,value^ZXY,Description^Automation,short description^Automation</t>
   </si>
   <si>
-    <t>wnd_WorkItems</t>
-  </si>
-  <si>
     <t>TS001</t>
   </si>
   <si>
-    <t>Work Item Type</t>
+    <t>Work Item Types</t>
+  </si>
+  <si>
+    <t>wnd_WorkItemTypes</t>
+  </si>
+  <si>
+    <t>allrows,value^ZXY</t>
   </si>
 </sst>
 </file>
@@ -981,15 +978,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -1088,10 +1085,10 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="8" t="s">
@@ -1138,10 +1135,10 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="8" t="s">
@@ -2286,7 +2283,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>46</v>
@@ -2560,7 +2557,7 @@
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
       <c r="L34" s="15" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>46</v>
@@ -2652,7 +2649,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>46</v>
@@ -2790,7 +2787,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>46</v>
@@ -3158,7 +3155,7 @@
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>46</v>
@@ -3616,7 +3613,7 @@
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="15" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>46</v>
@@ -3890,7 +3887,7 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="15" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>46</v>
@@ -4028,7 +4025,7 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="38" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>46</v>
